--- a/test-git/src/test/java/testData/TestData.xlsx
+++ b/test-git/src/test/java/testData/TestData.xlsx
@@ -25,28 +25,28 @@
     <t>Password</t>
   </si>
   <si>
+    <t>vandana.zanzad@gmail.com</t>
+  </si>
+  <si>
+    <t>Rajvika@123</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>checkValidUser001</t>
+  </si>
+  <si>
     <t>Result</t>
   </si>
   <si>
-    <t>vandana.zanzad@gmail.com</t>
-  </si>
-  <si>
-    <t>Rajvika@123</t>
-  </si>
-  <si>
-    <t>checkValidUser</t>
-  </si>
-  <si>
-    <t>checkValidUserUDF</t>
-  </si>
-  <si>
-    <t>vzanzad</t>
-  </si>
-  <si>
-    <t>random@123</t>
+    <t>Firefox</t>
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -400,20 +400,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,42 +424,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
     <hyperlink r:id="rId2" ref="C2"/>
-    <hyperlink r:id="rId3" ref="C3"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
